--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60032\Desktop\school\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2114A91-EEB3-4DA2-AA8E-7C541A0B5F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A635F21D-00B5-45B5-8371-9CCC19C23B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="915" windowWidth="16440" windowHeight="28320" xr2:uid="{C6B7D56E-67CD-4E21-9082-BF81724CA2BD}"/>
   </bookViews>
@@ -66,16 +66,16 @@
     <t>https://lifehacker.ru/diagramma-ganta/</t>
   </si>
   <si>
-    <t>Подзадача 2</t>
+    <t>ШКОЛА</t>
   </si>
   <si>
-    <t>Подзадача 1</t>
+    <t>Подзадача 3.1</t>
   </si>
   <si>
-    <t>Подзадача 3</t>
+    <t>Подзадача 3.2</t>
   </si>
   <si>
-    <t>ШКОЛА</t>
+    <t>Подзадача 3.3</t>
   </si>
 </sst>
 </file>
@@ -83,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$]dd/mm/yyyy;@" x16r2:formatCode16="[$-en-150,1]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$]dd/mm/yyyy;@" x16r2:formatCode16="[$-en-150,1]dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -173,13 +173,13 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -271,13 +271,13 @@
                   <c:v>Задача 3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Подзадача 1</c:v>
+                  <c:v>Подзадача 3.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Подзадача 2</c:v>
+                  <c:v>Подзадача 3.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Подзадача 3</c:v>
+                  <c:v>Подзадача 3.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Задача 4</c:v>
@@ -449,13 +449,13 @@
                   <c:v>Задача 3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Подзадача 1</c:v>
+                  <c:v>Подзадача 3.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Подзадача 2</c:v>
+                  <c:v>Подзадача 3.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Подзадача 3</c:v>
+                  <c:v>Подзадача 3.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Задача 4</c:v>
@@ -600,7 +600,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1561,7 +1561,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>45226</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>45228</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
         <v>45230</v>
